--- a/SparkAndH20TuningParameters.xlsx
+++ b/SparkAndH20TuningParameters.xlsx
@@ -1,35 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahenrick/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72993AA-1BC1-7A45-B849-D59F9AF3C6D0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30500" windowHeight="17020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="InstanceType" sheetId="1" r:id="rId1"/>
+    <sheet name="Thin" sheetId="4" r:id="rId2"/>
+    <sheet name="Fat" sheetId="3" r:id="rId3"/>
+    <sheet name="Optimized" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="30">
   <si>
     <t>num-executors</t>
   </si>
@@ -64,9 +60,6 @@
     <t>m4.16xlarge</t>
   </si>
   <si>
-    <t>Reserved for OS/YARN</t>
-  </si>
-  <si>
     <t>Change Number of Nodes</t>
   </si>
   <si>
@@ -119,13 +112,16 @@
   </si>
   <si>
     <t>r4.16xlarge</t>
+  </si>
+  <si>
+    <t>Reserved for OS/Hadoop/YARN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,8 +164,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,8 +207,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -197,11 +222,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -217,8 +323,85 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="67">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -277,7 +460,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -312,7 +495,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -489,24 +672,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A5" zoomScale="96" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="31.33203125" customWidth="1"/>
     <col min="6" max="6" width="37.33203125" customWidth="1"/>
     <col min="7" max="7" width="44.5" customWidth="1"/>
@@ -516,27 +700,28 @@
     <col min="11" max="11" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:9">
+      <c r="C1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="H1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" ht="17">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -547,18 +732,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="115" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="115" customHeight="1">
       <c r="G4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="I4" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -571,7 +756,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -584,24 +769,24 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="E9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="E10" t="s">
         <v>3</v>
       </c>
@@ -610,7 +795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="E11" s="9" t="s">
         <v>0</v>
       </c>
@@ -619,7 +804,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="E12" t="s">
         <v>7</v>
       </c>
@@ -628,7 +813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="E13" s="3" t="s">
         <v>2</v>
       </c>
@@ -637,19 +822,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="E14" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14">
         <f>D5</f>
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17">
       <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
@@ -660,7 +845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -672,7 +857,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -684,7 +869,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="E24" s="3" t="s">
         <v>1</v>
       </c>
@@ -692,16 +877,16 @@
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="E25" t="s">
         <v>3</v>
       </c>
@@ -710,7 +895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="E26" s="3" t="s">
         <v>0</v>
       </c>
@@ -719,7 +904,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="E27" t="s">
         <v>7</v>
       </c>
@@ -728,7 +913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="E28" s="3" t="s">
         <v>2</v>
       </c>
@@ -737,22 +922,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="E29" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" s="2">
         <f>D20</f>
         <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="F30" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="17">
       <c r="A33" s="4" t="s">
         <v>10</v>
       </c>
@@ -763,7 +948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
         <v>5</v>
       </c>
@@ -775,7 +960,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
         <v>6</v>
       </c>
@@ -787,7 +972,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="E39" s="3" t="s">
         <v>1</v>
       </c>
@@ -795,16 +980,16 @@
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="E40" t="s">
         <v>3</v>
       </c>
@@ -813,7 +998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="E41" s="3" t="s">
         <v>0</v>
       </c>
@@ -822,7 +1007,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="E42" t="s">
         <v>7</v>
       </c>
@@ -831,7 +1016,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="E43" s="3" t="s">
         <v>2</v>
       </c>
@@ -840,21 +1025,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="E44" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F44">
         <f>D35</f>
         <v>63</v>
       </c>
       <c r="G44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="17">
+      <c r="A48" s="4" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
@@ -863,7 +1048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9">
       <c r="B50" t="s">
         <v>5</v>
       </c>
@@ -875,7 +1060,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9">
       <c r="B51" t="s">
         <v>6</v>
       </c>
@@ -887,7 +1072,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9">
       <c r="E54" s="3" t="s">
         <v>1</v>
       </c>
@@ -895,16 +1080,16 @@
         <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
       <c r="E55" t="s">
         <v>3</v>
       </c>
@@ -913,7 +1098,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9">
       <c r="E56" s="3" t="s">
         <v>0</v>
       </c>
@@ -922,7 +1107,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9">
       <c r="E57" t="s">
         <v>7</v>
       </c>
@@ -931,7 +1116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9">
       <c r="E58" s="3" t="s">
         <v>2</v>
       </c>
@@ -942,5 +1127,615 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="17">
+      <c r="A3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="13">
+        <v>10</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="13">
+        <v>16</v>
+      </c>
+      <c r="D5" s="13">
+        <f>ROUNDDOWN(C5-1,0)</f>
+        <v>15</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="13">
+        <v>64</v>
+      </c>
+      <c r="D6" s="13">
+        <f>ROUNDDOWN(C6-1,0)</f>
+        <v>63</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="17">
+        <f>ROUNDDOWN(D5/F9,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <f>ROUNDDOWN(C3*F10-1,0)</f>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="18">
+        <f>ROUNDDOWN(D6/F10,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="17">
+        <f>ROUNDDOWN(F12-F12*0.1,)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="13">
+        <f>D5</f>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="33.83203125" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" ht="17">
+      <c r="A3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="13">
+        <v>10</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="11"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="13">
+        <v>16</v>
+      </c>
+      <c r="E5" s="13">
+        <f>ROUNDDOWN(D5-1,0)</f>
+        <v>15</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="11"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="13">
+        <v>64</v>
+      </c>
+      <c r="E6" s="13">
+        <f>ROUNDDOWN(D6-1,0)</f>
+        <v>63</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="11"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="11"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="11"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="17">
+        <f>ROUNDDOWN(E5/G9,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="11"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <f>ROUNDDOWN(D3*G10-1,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="18">
+        <f>ROUNDDOWN(E6/G10,0)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="11"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="17">
+        <f>ROUNDDOWN(G12-G12*0.1,)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="11"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="13">
+        <f>E5</f>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="17">
+      <c r="A3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="13">
+        <v>10</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="13">
+        <v>16</v>
+      </c>
+      <c r="D5" s="13">
+        <f>ROUNDDOWN(C5-1,0)</f>
+        <v>15</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="13">
+        <v>64</v>
+      </c>
+      <c r="D6" s="13">
+        <f>ROUNDDOWN(C6-1,0)</f>
+        <v>63</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="17">
+        <f>ROUNDDOWN(D5/F9,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <f>ROUNDDOWN(C3*F10-1,0)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="18">
+        <f>ROUNDDOWN(D6/F10,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="17">
+        <f>ROUNDDOWN(F12-F12*0.1,)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="13">
+        <f>D5</f>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>